--- a/Network_analysis/Twitter_data.xlsx
+++ b/Network_analysis/Twitter_data.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10306"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seonwookim/Desktop/Paper/[Github]/PR_education_Python/Network_analysis/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6667866D-1C4E-6640-8D4C-0A48AA4B2FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="22220" yWindow="1860" windowWidth="20440" windowHeight="15160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1234,8 +1240,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1298,6 +1304,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1344,7 +1358,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1376,9 +1390,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1410,6 +1442,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1585,14 +1635,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="48.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1627,7 +1682,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1665,7 +1720,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1703,7 +1758,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1741,7 +1796,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1779,7 +1834,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1817,7 +1872,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1855,7 +1910,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1893,7 +1948,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1931,7 +1986,7 @@
         <v>88489</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1969,7 +2024,7 @@
         <v>7634</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2007,7 +2062,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2045,7 +2100,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2083,7 +2138,7 @@
         <v>2869</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2121,7 +2176,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2159,7 +2214,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2197,7 +2252,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2235,7 +2290,7 @@
         <v>4063</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2273,7 +2328,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2311,7 +2366,7 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2349,7 +2404,7 @@
         <v>10010</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2387,7 +2442,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2425,7 +2480,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2463,7 +2518,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2501,7 +2556,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2539,7 +2594,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2577,7 +2632,7 @@
         <v>5003</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2615,7 +2670,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2653,7 +2708,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2691,7 +2746,7 @@
         <v>3233</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2729,7 +2784,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2767,7 +2822,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2805,7 +2860,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2843,7 +2898,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2881,7 +2936,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2919,7 +2974,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2957,7 +3012,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2995,7 +3050,7 @@
         <v>4302</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3033,7 +3088,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3071,7 +3126,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3109,7 +3164,7 @@
         <v>2268</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3147,7 +3202,7 @@
         <v>2268</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3185,7 +3240,7 @@
         <v>3295</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3223,7 +3278,7 @@
         <v>3295</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3261,7 +3316,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3299,7 +3354,7 @@
         <v>2326</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3337,7 +3392,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3375,7 +3430,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3413,7 +3468,7 @@
         <v>3295</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3451,7 +3506,7 @@
         <v>3295</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3489,7 +3544,7 @@
         <v>88489</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -3527,7 +3582,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -3565,7 +3620,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3603,7 +3658,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -3641,7 +3696,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -3679,7 +3734,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -3717,7 +3772,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -3755,7 +3810,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -3793,7 +3848,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -3831,7 +3886,7 @@
         <v>3855</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -3869,7 +3924,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -3907,7 +3962,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3945,7 +4000,7 @@
         <v>5003</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -3983,7 +4038,7 @@
         <v>5003</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -4021,7 +4076,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -4059,7 +4114,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -4097,7 +4152,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -4135,7 +4190,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -4173,7 +4228,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -4211,7 +4266,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -4249,7 +4304,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -4287,7 +4342,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -4325,7 +4380,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -4363,7 +4418,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -4401,7 +4456,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -4439,7 +4494,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -4477,7 +4532,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -4515,7 +4570,7 @@
         <v>2268</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -4553,7 +4608,7 @@
         <v>3295</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -4591,7 +4646,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -4629,7 +4684,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -4667,7 +4722,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -4705,7 +4760,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -4743,7 +4798,7 @@
         <v>3295</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -4781,7 +4836,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -4819,7 +4874,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -4857,7 +4912,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>85</v>
       </c>
